--- a/StreamLine Web Automator/tests/google_test.xlsx
+++ b/StreamLine Web Automator/tests/google_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine Web Automator\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A167E18F-8B95-4034-BCC4-B76EEFD36FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A7211-6A01-41B7-B88B-E240BED5CBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,8 +652,10 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:L1"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/StreamLine Web Automator/tests/google_test.xlsx
+++ b/StreamLine Web Automator/tests/google_test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine Web Automator\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A7211-6A01-41B7-B88B-E240BED5CBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D775323D-25FD-48A4-AB52-E66B37C0A12F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Top Navbar" sheetId="2" r:id="rId2"/>
+    <sheet name="Top Navbar" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,9 +58,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B11DBC5A-F960-4926-BC5C-8DD8B276F1E5}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D731AAA7-D246-4293-B08E-A25EB5FCFE6C}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DCA082B7-3F56-4A55-AF9B-1CB9469F9155}">
       <text>
         <r>
           <rPr>
@@ -95,11 +96,37 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Enter an action / keyword from actions/keywords dictionary. Don't leave this cell blank</t>
+          <t>Enter an keyword from the keywords dictionary. Don't leave this cell blank</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{06BCC343-8448-4ABC-BB36-CE742F18C441}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the keyword requires an input, type it here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{65650E63-E7F0-4670-AC6D-0C6DD60D73BF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the keyword requires an operation, type it here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7B4A5D25-D415-4C30-B198-04138641D375}">
       <text>
         <r>
           <rPr>
@@ -112,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D04C8986-1DF0-4418-BA41-A9F3D88B5CAF}">
       <text>
         <r>
           <rPr>
@@ -125,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{33BE275B-5647-48F8-AB48-2F8DA8A86A1C}">
       <text>
         <r>
           <rPr>
@@ -138,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{ED655EF0-2D19-4A96-A93B-662F6082E7E4}">
       <text>
         <r>
           <rPr>
@@ -151,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AE76A659-8586-4751-B408-A156822D11E2}">
       <text>
         <r>
           <rPr>
@@ -169,20 +196,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t>homeURL</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Element Name</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -201,9 +222,6 @@
     <t>gmail tab - test text (Gmail)</t>
   </si>
   <si>
-    <t>compare text</t>
-  </si>
-  <si>
     <t>Gmail</t>
   </si>
   <si>
@@ -216,18 +234,12 @@
     <t>css selector</t>
   </si>
   <si>
-    <t>#gbw &gt; div &gt; div.gb_Xa.gb_Ng.gb_i.gb_Mg.gb_Qg.gb_4f &gt; div.gb_ne.gb_i.gb_Ng.gb_Dg &gt; div.gb_h.gb_i:nth-child(1) &gt; a.gb_g</t>
-  </si>
-  <si>
     <t>gmail tab - test displayed</t>
   </si>
   <si>
     <t>is displayed</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Images Tab</t>
   </si>
   <si>
@@ -240,9 +252,6 @@
     <t>gmail tab - test size (34, 24)</t>
   </si>
   <si>
-    <t>compare size</t>
-  </si>
-  <si>
     <t>(34, 24)</t>
   </si>
   <si>
@@ -252,18 +261,12 @@
     <t>gmail tab - test location (1115, 19)</t>
   </si>
   <si>
-    <t>compare location</t>
-  </si>
-  <si>
     <t>(1115, 19)</t>
   </si>
   <si>
     <t>gmail tab - test link</t>
   </si>
   <si>
-    <t>compare link</t>
-  </si>
-  <si>
     <t>https://mail.google.com/mail/?tab=wm&amp;ogbl</t>
   </si>
   <si>
@@ -273,18 +276,12 @@
     <t>gmail tab - test font size</t>
   </si>
   <si>
-    <t>compare css value font-size</t>
-  </si>
-  <si>
     <t>13px</t>
   </si>
   <si>
     <t>gmail tab - test data attribute</t>
   </si>
   <si>
-    <t>compare attribute data-pid</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -300,23 +297,215 @@
     <t>https://www.google.com/imghp?hl=en&amp;tab=wi&amp;ogbl</t>
   </si>
   <si>
-    <t>grab elements</t>
-  </si>
-  <si>
-    <t>get web elements</t>
-  </si>
-  <si>
     <t>gmail tab - test click</t>
   </si>
   <si>
     <t>click</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Total Runs</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Latest Run</t>
+  </si>
+  <si>
+    <t>Latest Run Status</t>
+  </si>
+  <si>
+    <t>Desktop Total</t>
+  </si>
+  <si>
+    <t>Desktop Pass</t>
+  </si>
+  <si>
+    <t>Desktop Fail</t>
+  </si>
+  <si>
+    <t>Desktop Error</t>
+  </si>
+  <si>
+    <t>Tablet Total</t>
+  </si>
+  <si>
+    <t>Tablet Pass</t>
+  </si>
+  <si>
+    <t>Tablet Fail</t>
+  </si>
+  <si>
+    <t>Tablet Error</t>
+  </si>
+  <si>
+    <t>Mobile Total</t>
+  </si>
+  <si>
+    <t>Mobile Pass</t>
+  </si>
+  <si>
+    <t>Mobile Fail</t>
+  </si>
+  <si>
+    <t>Mobile Error</t>
+  </si>
+  <si>
+    <t>Chrome Total</t>
+  </si>
+  <si>
+    <t>Chrome Pass</t>
+  </si>
+  <si>
+    <t>Chrome Fail</t>
+  </si>
+  <si>
+    <t>Chrome Error</t>
+  </si>
+  <si>
+    <t>Edge Total</t>
+  </si>
+  <si>
+    <t>Edge Pass</t>
+  </si>
+  <si>
+    <t>Edge Fail</t>
+  </si>
+  <si>
+    <t>Edge Error</t>
+  </si>
+  <si>
+    <t>Safari Total</t>
+  </si>
+  <si>
+    <t>Safari Pass</t>
+  </si>
+  <si>
+    <t>Safari Fail</t>
+  </si>
+  <si>
+    <t>Safari Error</t>
+  </si>
+  <si>
+    <t>Firefox Total</t>
+  </si>
+  <si>
+    <t>Firefox Pass</t>
+  </si>
+  <si>
+    <t>Firefox Fail</t>
+  </si>
+  <si>
+    <t>Firefox Error</t>
+  </si>
+  <si>
+    <t>IE Total</t>
+  </si>
+  <si>
+    <t>IE Pass</t>
+  </si>
+  <si>
+    <t>IE Fail</t>
+  </si>
+  <si>
+    <t>IE Error</t>
+  </si>
+  <si>
+    <t>Android Total</t>
+  </si>
+  <si>
+    <t>Android Pass</t>
+  </si>
+  <si>
+    <t>Android Fail</t>
+  </si>
+  <si>
+    <t>Android Error</t>
+  </si>
+  <si>
+    <t>iOS Total</t>
+  </si>
+  <si>
+    <t>iOS Pass</t>
+  </si>
+  <si>
+    <t>iOS Fail</t>
+  </si>
+  <si>
+    <t>iOS Error</t>
+  </si>
+  <si>
+    <t>Windows Total</t>
+  </si>
+  <si>
+    <t>Windows Pass</t>
+  </si>
+  <si>
+    <t>Windows Fail</t>
+  </si>
+  <si>
+    <t>Windows Error</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>#gb &gt; div.gb_Xd.gb_Ta.gb_Jd &gt; div:nth-child(1) &gt; div.gb_9d.gb_i.gb_og.gb_fg &gt; div.gb_h.gb_i:nth-child(1) &gt; a.gb_g</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>css value</t>
+  </si>
+  <si>
+    <t>font-size</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>data-pid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -332,12 +521,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -359,6 +542,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -375,8 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -389,26 +595,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E180E478-ED90-4B27-8935-C8D12996E42D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,14 +838,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -645,432 +855,548 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C87D0E7-6138-4BC9-9F0F-149049F5D570}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:BZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="6" max="9" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="14.44140625" style="6"/>
+    <col min="8" max="12" width="4.44140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="20" width="14.44140625" style="6"/>
+    <col min="21" max="21" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="5" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="4.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="30" width="3.109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="11" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="11.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="10.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="46" width="3.109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="11.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="13.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="9" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="11.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="10.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="9.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="11.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="12.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="11.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="10.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="12.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="7.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="7.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="6.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="7.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="13.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="12.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="11.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="13.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="9" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="8.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="7.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="9" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="14.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="13.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="13" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="14.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="16384" width="14.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="U1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:B13" si="0">$M$2</f>
+        <v>Gmail Tab</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>$M$2</f>
+        <v>Gmail Tab</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:B14" si="0">$J$2</f>
-        <v>Gmail Tab</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="O3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="str">
-        <f>$J$2</f>
-        <v>Gmail Tab</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Gmail Tab</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="str">
+    <row r="5" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Gmail Tab</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="C5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="str">
+    <row r="6" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Gmail Tab</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="C6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="str">
+    <row r="7" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Gmail Tab</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f>J2</f>
+    <row r="8" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>M2</f>
         <v>Gmail Tab</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f>$J$3</f>
+    <row r="9" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>$M$3</f>
         <v>Images Tab</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f>$J$3</f>
+    <row r="10" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>$M$3</f>
         <v>Images Tab</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="C10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f>$J$3</f>
+    <row r="11" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>$M$3</f>
         <v>Images Tab</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="str">
+    <row r="12" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Gmail Tab</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="C12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="str">
+    <row r="13" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Gmail Tab</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{698C1374-A692-4915-AB1C-8C52A0A747F8}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{E7E76AB0-5752-4C67-AEF1-05EC1305958C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
